--- a/tables/4.Salud/SALUD.xlsx
+++ b/tables/4.Salud/SALUD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unhcr365-my.sharepoint.com/personal/martnez_unhcr_org/Documents/Desktop/AYELEN/ENMA/ENMA/total/tables/4.Salud/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unhcr365-my.sharepoint.com/personal/martnez_unhcr_org/Documents/Desktop/AYELEN/ENMA/ENMA_repositorio/enma2023/tables/4.Salud/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="435" documentId="8_{4F38C7F1-BE32-4BD4-B23B-6F1C66D8942D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C47DC6BD-C590-4A7C-A800-527496290E0B}"/>
+  <xr:revisionPtr revIDLastSave="463" documentId="8_{4F38C7F1-BE32-4BD4-B23B-6F1C66D8942D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6C4AE9E-C4EA-484B-B959-A9762D8B5E4D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{CCE4960F-43FD-4FEF-86C7-8FE5A9553102}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="7" xr2:uid="{CCE4960F-43FD-4FEF-86C7-8FE5A9553102}"/>
   </bookViews>
   <sheets>
     <sheet name="q7" sheetId="4" r:id="rId1"/>
@@ -338,6 +338,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -352,12 +358,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -676,43 +676,43 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:E17"/>
+      <selection activeCell="B8" sqref="B4:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="34" customWidth="1"/>
-    <col min="2" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="2.42578125" customWidth="1"/>
-    <col min="5" max="6" width="11.42578125" customWidth="1"/>
+    <col min="2" max="3" width="12.26953125" customWidth="1"/>
+    <col min="4" max="4" width="2.453125" customWidth="1"/>
+    <col min="5" max="6" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="27" t="s">
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="30"/>
+      <c r="B2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="27"/>
+      <c r="C2" s="29"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="27"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
+      <c r="F2" s="29"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="31"/>
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
@@ -727,7 +727,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
@@ -747,7 +747,7 @@
         <v>42.512679625438025</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
@@ -767,7 +767,7 @@
         <v>3.2720942930650567</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
@@ -787,7 +787,7 @@
         <v>29.218050986931061</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>3</v>
       </c>
@@ -807,7 +807,7 @@
         <v>13.077721928137997</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>4</v>
       </c>
@@ -827,11 +827,11 @@
         <v>11.919453166427871</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>5</v>
       </c>
@@ -863,43 +863,43 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:F3"/>
+      <selection activeCell="C4" sqref="B4:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="42.140625" customWidth="1"/>
-    <col min="2" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="2.140625" customWidth="1"/>
-    <col min="5" max="6" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="42.1796875" customWidth="1"/>
+    <col min="2" max="3" width="12.54296875" customWidth="1"/>
+    <col min="4" max="4" width="2.1796875" customWidth="1"/>
+    <col min="5" max="6" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="27" t="s">
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="30"/>
+      <c r="B2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="27"/>
+      <c r="C2" s="29"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="27"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
+      <c r="F2" s="29"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="31"/>
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
@@ -914,7 +914,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
@@ -934,7 +934,7 @@
         <v>10.205377160700934</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>16</v>
       </c>
@@ -954,7 +954,7 @@
         <v>53.826526814838552</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>17</v>
       </c>
@@ -974,7 +974,7 @@
         <v>16.419993781792027</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>18</v>
       </c>
@@ -994,7 +994,7 @@
         <v>27.72899790196648</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>19</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>15.689838877894486</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>20</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>1.4111010629833765</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>21</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>3.2770513941039794</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>22</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>1.0403354164581562</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>14</v>
       </c>
@@ -1094,11 +1094,11 @@
         <v>2.375176494872036</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
         <v>5</v>
       </c>
@@ -1128,43 +1128,43 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:A3"/>
+      <selection activeCell="B13" sqref="B13:C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="42.5703125" customWidth="1"/>
-    <col min="2" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="3.42578125" customWidth="1"/>
-    <col min="5" max="6" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="42.54296875" customWidth="1"/>
+    <col min="2" max="3" width="12.81640625" customWidth="1"/>
+    <col min="4" max="4" width="3.453125" customWidth="1"/>
+    <col min="5" max="6" width="11.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="27" t="s">
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="30"/>
+      <c r="B2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="27"/>
+      <c r="C2" s="29"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="27"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
+      <c r="F2" s="29"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="31"/>
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>24</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>25</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>26</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>27</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>28</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>29</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>30</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>31</v>
       </c>
@@ -1323,11 +1323,11 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>5</v>
       </c>
@@ -1357,43 +1357,43 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="C4" sqref="C4:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
-    <col min="2" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="1.7109375" customWidth="1"/>
-    <col min="5" max="6" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="23.1796875" customWidth="1"/>
+    <col min="2" max="3" width="11.54296875" customWidth="1"/>
+    <col min="4" max="4" width="1.7265625" customWidth="1"/>
+    <col min="5" max="6" width="11.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="27" t="s">
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="30"/>
+      <c r="B2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="27"/>
+      <c r="C2" s="29"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="27"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
+      <c r="F2" s="29"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="31"/>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>43.2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1498,11 +1498,11 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>5</v>
       </c>
@@ -1534,44 +1534,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6D078B-93C4-4F2B-8FAB-8CBBCA5D6A31}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
       <selection sqref="A1:A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.7265625" customWidth="1"/>
     <col min="2" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="2" customWidth="1"/>
     <col min="5" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="27" t="s">
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="30"/>
+      <c r="B2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="27"/>
+      <c r="C2" s="29"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="27"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
+      <c r="F2" s="29"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="31"/>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>16</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>56.5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>17</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>18</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>25.8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>19</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>20</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>21</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>22</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>14</v>
       </c>
@@ -1748,11 +1748,11 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
         <v>5</v>
       </c>
@@ -1779,46 +1779,46 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8664B8C2-8E0F-4D24-8F3A-99CA64436FF4}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="42.85546875" customWidth="1"/>
-    <col min="2" max="3" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="42.81640625" customWidth="1"/>
+    <col min="2" max="3" width="10.453125" customWidth="1"/>
     <col min="4" max="4" width="3" customWidth="1"/>
-    <col min="5" max="6" width="10.42578125" customWidth="1"/>
+    <col min="5" max="6" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="27" t="s">
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="30"/>
+      <c r="B2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="27"/>
+      <c r="C2" s="29"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="27"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="F2" s="29"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="31" t="s">
         <v>34</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1835,175 +1835,159 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="13">
-        <v>44.894669999999998</v>
+        <v>48.907760000000003</v>
       </c>
       <c r="C4" s="13">
-        <v>78.252579999999995</v>
+        <v>76.434060000000002</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13">
-        <v>3.3</v>
+        <v>11.3</v>
       </c>
       <c r="F4" s="13">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-    </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="18">
-        <v>35.096530000000001</v>
+        <v>33.921349999999997</v>
       </c>
       <c r="C5" s="18">
-        <v>128.71284</v>
+        <v>126.63122</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="11">
-        <v>2.6</v>
+        <v>7.9</v>
       </c>
       <c r="F5" s="11">
-        <v>3.9</v>
-      </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-    </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="14">
-        <v>102.8304</v>
+        <v>104.6216</v>
       </c>
       <c r="C6" s="14">
-        <v>130.1859</v>
+        <v>121.6442</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="11">
-        <v>7.6</v>
+        <v>24.2</v>
       </c>
       <c r="F6" s="11">
-        <v>3.9</v>
-      </c>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="14">
-        <v>27.91207</v>
+        <v>28.807749999999999</v>
       </c>
       <c r="C7" s="14">
-        <v>26.898040000000002</v>
+        <v>26.39387</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="11">
-        <v>2.1</v>
+        <v>6.7</v>
       </c>
       <c r="F7" s="11">
-        <v>0.8</v>
-      </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-    </row>
-    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="14">
-        <v>39.804380000000002</v>
+        <v>41.989570000000001</v>
       </c>
       <c r="C8" s="14">
-        <v>52.736370000000001</v>
+        <v>48.909390000000002</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="11">
-        <v>3</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="F8" s="11">
-        <v>1.6</v>
-      </c>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="14">
-        <v>271.14850000000001</v>
+        <v>287.25040000000001</v>
       </c>
       <c r="C9" s="14">
-        <v>710.4434</v>
+        <v>690.30550000000005</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="11">
-        <v>20.100000000000001</v>
+        <v>66.5</v>
       </c>
       <c r="F9" s="11">
-        <v>21.3</v>
-      </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>74.599999999999994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="14">
-        <v>11.44755</v>
+        <v>14.234785</v>
       </c>
       <c r="C10" s="14">
-        <v>7.4799499999999997</v>
+        <v>8.6952510000000007</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="11">
-        <v>0.8</v>
+        <v>3.3</v>
       </c>
       <c r="F10" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B11" s="14">
-        <v>48.179369999999999</v>
+        <v>53.497570000000003</v>
       </c>
       <c r="C11" s="14">
-        <v>80.894289999999998</v>
+        <v>79.094009999999997</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="11">
-        <v>3.6</v>
+        <v>12.4</v>
       </c>
       <c r="F11" s="11">
-        <v>2.4</v>
-      </c>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="16">
-        <v>1346.998</v>
+        <v>432.07029999999997</v>
       </c>
       <c r="C13" s="16">
-        <v>3331.9560000000001</v>
+        <v>925.95519999999999</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="19"/>
@@ -2024,56 +2008,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FA2CBF0-E315-4813-960A-6242D198A56F}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="6" width="10.140625" customWidth="1"/>
-    <col min="7" max="7" width="1.140625" customWidth="1"/>
-    <col min="8" max="12" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.1796875" customWidth="1"/>
+    <col min="2" max="6" width="10.1796875" customWidth="1"/>
+    <col min="7" max="7" width="1.1796875" customWidth="1"/>
+    <col min="8" max="12" width="11.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="27" t="s">
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="30"/>
+      <c r="B2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="31"/>
       <c r="B3" s="22" t="s">
         <v>35</v>
       </c>
@@ -2106,7 +2090,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -2146,7 +2130,7 @@
         <v>35.530327414376202</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -2186,7 +2170,7 @@
         <v>5.7521062460536569</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -2226,7 +2210,7 @@
         <v>51.467955597814218</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -2266,7 +2250,7 @@
         <v>1.0980591060335629</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -2306,7 +2290,7 @@
         <v>6.1515516357223676</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="24" t="s">
         <v>5</v>
       </c>
@@ -2352,91 +2336,91 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EDAF24D-F21C-483F-9EE5-5A8C6690F1ED}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" customWidth="1"/>
-    <col min="2" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="1.5703125" customWidth="1"/>
-    <col min="8" max="12" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="36.81640625" customWidth="1"/>
+    <col min="2" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="1.54296875" customWidth="1"/>
+    <col min="8" max="12" width="13.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="27" t="s">
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="30"/>
+      <c r="B2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
       <c r="G2" s="17"/>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-    </row>
-    <row r="3" spans="1:12" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+    </row>
+    <row r="3" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="27" t="s">
         <v>39</v>
       </c>
       <c r="G3" s="26"/>
-      <c r="H3" s="32" t="s">
+      <c r="H3" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="I3" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="32" t="s">
+      <c r="J3" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="K3" s="32" t="s">
+      <c r="K3" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="L3" s="32" t="s">
+      <c r="L3" s="27" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>24</v>
       </c>
@@ -2444,119 +2428,104 @@
         <v>0</v>
       </c>
       <c r="C4" s="21">
-        <v>6.8270720000000003</v>
+        <v>8.5592439999999996</v>
       </c>
       <c r="D4" s="21">
-        <v>12.177906999999999</v>
+        <v>12.807248</v>
       </c>
       <c r="E4" s="21">
-        <v>5.9874679999999998</v>
+        <v>6.0292579999999996</v>
       </c>
       <c r="F4" s="21">
-        <v>4.4647329999999998</v>
+        <v>3.841326</v>
       </c>
       <c r="H4" s="20">
-        <f>+B4/B$13*100</f>
         <v>0</v>
       </c>
       <c r="I4" s="20">
-        <f t="shared" ref="I4:L4" si="0">+C4/C$13*100</f>
-        <v>1.3052789458948368</v>
+        <v>4.7929189343347378</v>
       </c>
       <c r="J4" s="20">
-        <f t="shared" si="0"/>
-        <v>1.8826352977056902</v>
+        <v>7.2725385415216879</v>
       </c>
       <c r="K4" s="20">
-        <f t="shared" si="0"/>
-        <v>2.5992204250545785</v>
+        <v>7.0953474329627797</v>
       </c>
       <c r="L4" s="20">
-        <f t="shared" si="0"/>
-        <v>11.988109983591553</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>22.161129642855908</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="21">
-        <v>2.5930939999999998</v>
+        <v>2.3117869999999998</v>
       </c>
       <c r="C5" s="21">
-        <v>15.388035</v>
+        <v>14.105199000000001</v>
       </c>
       <c r="D5" s="21">
-        <v>14.323899000000001</v>
+        <v>12.33724</v>
       </c>
       <c r="E5" s="21">
-        <v>14.368034</v>
+        <v>12.809341</v>
       </c>
       <c r="F5" s="21">
-        <v>1.6564680000000001</v>
+        <v>1.476769</v>
       </c>
       <c r="H5" s="20">
-        <f t="shared" ref="H5:H11" si="1">+B5/B$13*100</f>
-        <v>8.9889730479244303</v>
+        <v>22.791540719971447</v>
       </c>
       <c r="I5" s="20">
-        <f t="shared" ref="I5:I11" si="2">+C5/C$13*100</f>
-        <v>2.9420633185343372</v>
+        <v>7.8984867541642023</v>
       </c>
       <c r="J5" s="20">
-        <f t="shared" ref="J5:J11" si="3">+D5/D$13*100</f>
-        <v>2.2143934797803304</v>
+        <v>7.0056465991759538</v>
       </c>
       <c r="K5" s="20">
-        <f t="shared" ref="K5:K11" si="4">+E5/E$13*100</f>
-        <v>6.2373088993007784</v>
+        <v>15.07428024846422</v>
       </c>
       <c r="L5" s="20">
-        <f t="shared" ref="L5:L11" si="5">+F5/F$13*100</f>
-        <v>4.4477285804772499</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>8.5196802514419954</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="21">
-        <v>1.2317990000000001</v>
+        <v>1.098169</v>
       </c>
       <c r="C6" s="21">
-        <v>17.353438000000001</v>
+        <v>18.199977000000001</v>
       </c>
       <c r="D6" s="21">
-        <v>27.133423000000001</v>
+        <v>24.433357999999998</v>
       </c>
       <c r="E6" s="21">
-        <v>2.6586370000000001</v>
+        <v>4.2472500000000002</v>
       </c>
       <c r="F6" s="21">
-        <v>3.3645290000000001</v>
+        <v>2.7879640000000001</v>
       </c>
       <c r="H6" s="20">
-        <f t="shared" si="1"/>
-        <v>4.2700372649276366</v>
+        <v>10.82667368616154</v>
       </c>
       <c r="I6" s="20">
-        <f t="shared" si="2"/>
-        <v>3.3178318992814786</v>
+        <v>10.191439146699961</v>
       </c>
       <c r="J6" s="20">
-        <f t="shared" si="3"/>
-        <v>4.1946731804881923</v>
+        <v>13.874373148220231</v>
       </c>
       <c r="K6" s="20">
-        <f t="shared" si="4"/>
-        <v>1.1541412151523531</v>
+        <v>4.9982459507705874</v>
       </c>
       <c r="L6" s="20">
-        <f t="shared" si="5"/>
-        <v>9.0339878543651544</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>16.084141685349053</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>27</v>
       </c>
@@ -2564,39 +2533,34 @@
         <v>0</v>
       </c>
       <c r="C7" s="21">
-        <v>5.1012219999999999</v>
+        <v>5.2229209000000001</v>
       </c>
       <c r="D7" s="21">
-        <v>5.3469810000000004</v>
+        <v>5.5555672999999999</v>
       </c>
       <c r="E7" s="21">
-        <v>1.097035</v>
+        <v>0.97802469999999997</v>
       </c>
       <c r="F7" s="21">
-        <v>2.291023</v>
+        <v>1.8834223000000001</v>
       </c>
       <c r="H7" s="20">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I7" s="20">
-        <f t="shared" si="2"/>
-        <v>0.97531089095523693</v>
+        <v>2.9246784498891065</v>
       </c>
       <c r="J7" s="20">
-        <f t="shared" si="3"/>
-        <v>0.82661291195290543</v>
+        <v>3.1547040636105104</v>
       </c>
       <c r="K7" s="20">
-        <f t="shared" si="4"/>
-        <v>0.47623399056157784</v>
+        <v>1.1509583840199229</v>
       </c>
       <c r="L7" s="20">
-        <f t="shared" si="5"/>
-        <v>6.1515516602981348</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>10.865718182353138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>28</v>
       </c>
@@ -2604,119 +2568,104 @@
         <v>0</v>
       </c>
       <c r="C8" s="21">
-        <v>8.6041299999999996</v>
+        <v>7.5189630000000003</v>
       </c>
       <c r="D8" s="21">
-        <v>23.591374999999999</v>
+        <v>21.205148999999999</v>
       </c>
       <c r="E8" s="21">
-        <v>1.148576</v>
+        <v>1.0239750000000001</v>
       </c>
       <c r="F8" s="21">
-        <v>3.4647329999999998</v>
+        <v>2.841326</v>
       </c>
       <c r="H8" s="20">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I8" s="20">
-        <f t="shared" si="2"/>
-        <v>1.6450375412390761</v>
+        <v>4.21039289559479</v>
       </c>
       <c r="J8" s="20">
-        <f t="shared" si="3"/>
-        <v>3.6470926651362654</v>
+        <v>12.041249094357358</v>
       </c>
       <c r="K8" s="20">
-        <f t="shared" si="4"/>
-        <v>0.49860846002475295</v>
+        <v>1.2050335858356143</v>
       </c>
       <c r="L8" s="20">
-        <f t="shared" si="5"/>
-        <v>9.3030423695614282</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>16.391994286248345</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="21">
-        <v>10.334863</v>
+        <v>9.4965949999999992</v>
       </c>
       <c r="C9" s="21">
-        <v>120.052953</v>
+        <v>124.89490600000001</v>
       </c>
       <c r="D9" s="21">
-        <v>135.92923099999999</v>
+        <v>129.73861099999999</v>
       </c>
       <c r="E9" s="21">
-        <v>65.000609999999995</v>
+        <v>67.024801999999994</v>
       </c>
       <c r="F9" s="21">
-        <v>9.4995589999999996</v>
+        <v>10.244806000000001</v>
       </c>
       <c r="H9" s="20">
-        <f t="shared" si="1"/>
-        <v>35.825853193517638</v>
+        <v>93.625421218986546</v>
       </c>
       <c r="I9" s="20">
-        <f t="shared" si="2"/>
-        <v>22.953118400304316</v>
+        <v>69.937386966577591</v>
       </c>
       <c r="J9" s="20">
-        <f t="shared" si="3"/>
-        <v>21.013887548212555</v>
+        <v>73.67149045766817</v>
       </c>
       <c r="K9" s="20">
-        <f t="shared" si="4"/>
-        <v>28.217422314909552</v>
+        <v>78.876083394596577</v>
       </c>
       <c r="L9" s="20">
-        <f t="shared" si="5"/>
-        <v>25.506958218468377</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>59.103672516185313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="21">
-        <v>0.77099200000000001</v>
+        <v>1.4747954000000001</v>
       </c>
       <c r="C10" s="21">
-        <v>2.267074</v>
+        <v>3.4237278999999998</v>
       </c>
       <c r="D10" s="21">
-        <v>3.7124860000000002</v>
+        <v>3.6937681000000002</v>
       </c>
       <c r="E10" s="21">
-        <v>5.8848149999999997</v>
+        <v>7.7741141000000002</v>
       </c>
       <c r="F10" s="21">
-        <v>1.17371</v>
+        <v>0.95790390000000003</v>
       </c>
       <c r="H10" s="20">
-        <f t="shared" si="1"/>
-        <v>2.6726475431146546</v>
+        <v>14.539773522701955</v>
       </c>
       <c r="I10" s="20">
-        <f t="shared" si="2"/>
-        <v>0.43344554751811482</v>
+        <v>1.9171845408216088</v>
       </c>
       <c r="J10" s="20">
-        <f t="shared" si="3"/>
-        <v>0.57392926270813271</v>
+        <v>2.0974897082256345</v>
       </c>
       <c r="K10" s="20">
-        <f t="shared" si="4"/>
-        <v>2.5546577193677793</v>
+        <v>9.1487278406388892</v>
       </c>
       <c r="L10" s="20">
-        <f t="shared" si="5"/>
-        <v>3.151490709263296</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>5.5262772577222767</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>31</v>
       </c>
@@ -2724,39 +2673,34 @@
         <v>0</v>
       </c>
       <c r="C11" s="21">
-        <v>20.5226848</v>
+        <v>21.917591999999999</v>
       </c>
       <c r="D11" s="21">
-        <v>14.053519700000001</v>
+        <v>15.1986036</v>
       </c>
       <c r="E11" s="21">
-        <v>10.0923888</v>
+        <v>10.7390556</v>
       </c>
       <c r="F11" s="21">
-        <v>0.48578949999999999</v>
+        <v>0.43308940000000001</v>
       </c>
       <c r="H11" s="20">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I11" s="20">
-        <f t="shared" si="2"/>
-        <v>3.9237653246774009</v>
+        <v>12.273191615033243</v>
       </c>
       <c r="J11" s="20">
-        <f t="shared" si="3"/>
-        <v>2.1725943747330541</v>
+        <v>8.6304591320719553</v>
       </c>
       <c r="K11" s="20">
-        <f t="shared" si="4"/>
-        <v>4.3812080676760301</v>
+        <v>12.63792834605926</v>
       </c>
       <c r="L11" s="20">
-        <f t="shared" si="5"/>
-        <v>1.3043776536858862</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2.4985513701119557</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
       <c r="D12" s="21"/>
@@ -2768,24 +2712,24 @@
       <c r="K12" s="20"/>
       <c r="L12" s="20"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="25">
-        <v>28.8475</v>
+        <v>10.143179999999999</v>
       </c>
       <c r="C13" s="25">
-        <v>523.03548000000001</v>
+        <v>178.58103</v>
       </c>
       <c r="D13" s="25">
-        <v>646.85428000000002</v>
+        <v>176.10423</v>
       </c>
       <c r="E13" s="25">
-        <v>230.3563</v>
+        <v>84.974810000000005</v>
       </c>
       <c r="F13" s="25">
-        <v>37.243009999999998</v>
+        <v>17.33362</v>
       </c>
       <c r="G13" s="22"/>
       <c r="H13" s="22"/>

--- a/tables/4.Salud/SALUD.xlsx
+++ b/tables/4.Salud/SALUD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unhcr365-my.sharepoint.com/personal/martnez_unhcr_org/Documents/Desktop/AYELEN/ENMA/ENMA_repositorio/enma2023/tables/4.Salud/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="463" documentId="8_{4F38C7F1-BE32-4BD4-B23B-6F1C66D8942D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6C4AE9E-C4EA-484B-B959-A9762D8B5E4D}"/>
+  <xr:revisionPtr revIDLastSave="522" documentId="8_{4F38C7F1-BE32-4BD4-B23B-6F1C66D8942D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B0C3C76-8385-491E-B9C7-C7D7DEBFD0A8}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="7" xr2:uid="{CCE4960F-43FD-4FEF-86C7-8FE5A9553102}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{CCE4960F-43FD-4FEF-86C7-8FE5A9553102}"/>
   </bookViews>
   <sheets>
     <sheet name="q7" sheetId="4" r:id="rId1"/>
@@ -675,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F0D28E8-ED79-4903-B6C8-37423C6F0919}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B8" sqref="B4:B8"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -732,19 +732,17 @@
         <v>0</v>
       </c>
       <c r="B4" s="13">
-        <v>221.26236</v>
+        <v>233.556087359</v>
       </c>
       <c r="C4" s="13">
-        <v>1847.2942</v>
+        <v>1772.260124144</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="11">
-        <f t="shared" ref="E4:F8" si="0">+B4/B$10*100</f>
-        <v>72.427579903043792</v>
+        <v>71.446908825921682</v>
       </c>
       <c r="F4" s="11">
-        <f t="shared" si="0"/>
-        <v>42.512679625438025</v>
+        <v>40.97035208421719</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -752,19 +750,17 @@
         <v>1</v>
       </c>
       <c r="B5" s="14">
-        <v>11.540290000000001</v>
+        <v>11.327602174999999</v>
       </c>
       <c r="C5" s="14">
-        <v>142.1816</v>
+        <v>136.09774109200001</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="11">
-        <f t="shared" si="0"/>
-        <v>3.7775755265346413</v>
+        <v>3.4652154391057453</v>
       </c>
       <c r="F5" s="11">
-        <f t="shared" si="0"/>
-        <v>3.2720942930650567</v>
+        <v>3.1462494102546397</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -772,19 +768,17 @@
         <v>2</v>
       </c>
       <c r="B6" s="14">
-        <v>16.305060000000001</v>
+        <v>18.889420209000001</v>
       </c>
       <c r="C6" s="14">
-        <v>1269.6056000000001</v>
+        <v>1313.4128792870001</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="11">
-        <f t="shared" si="0"/>
-        <v>5.3372658412118685</v>
+        <v>5.7784436222913955</v>
       </c>
       <c r="F6" s="11">
-        <f t="shared" si="0"/>
-        <v>29.218050986931061</v>
+        <v>30.362917589382942</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -792,19 +786,17 @@
         <v>3</v>
       </c>
       <c r="B7" s="14">
-        <v>30.78951</v>
+        <v>39.034702349999996</v>
       </c>
       <c r="C7" s="14">
-        <v>568.26340000000005</v>
+        <v>632.36085268299996</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="11">
-        <f t="shared" si="0"/>
-        <v>10.078576833857172</v>
+        <v>11.941066710715177</v>
       </c>
       <c r="F7" s="11">
-        <f t="shared" si="0"/>
-        <v>13.077721928137997</v>
+        <v>14.618647920666767</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -812,19 +804,17 @@
         <v>4</v>
       </c>
       <c r="B8" s="14">
-        <v>25.5974</v>
+        <v>24.086788663</v>
       </c>
       <c r="C8" s="14">
-        <v>517.93340000000001</v>
+        <v>471.58208106799998</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="11">
-        <f t="shared" si="0"/>
-        <v>8.3790018953525269</v>
+        <v>7.3683654019660043</v>
       </c>
       <c r="F8" s="11">
-        <f t="shared" si="0"/>
-        <v>11.919453166427871</v>
+        <v>10.901832995478463</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -836,12 +826,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="16">
-        <f>+SUM(B4:B8)</f>
-        <v>305.49462</v>
+        <v>326.89460075599999</v>
       </c>
       <c r="C10" s="16">
-        <f>+SUM(C4:C8)</f>
-        <v>4345.2781999999997</v>
+        <v>4325.7136782739999</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
@@ -863,7 +851,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C4" sqref="B4:C12"/>
+      <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -919,19 +907,17 @@
         <v>15</v>
       </c>
       <c r="B4" s="13">
-        <v>82.869969999999995</v>
+        <v>81.457816231999999</v>
       </c>
       <c r="C4" s="13">
-        <v>446.31029999999998</v>
+        <v>431.19459291999999</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="11">
-        <f>+B4/B$14*100</f>
-        <v>27.111042118476636</v>
+        <v>24.902271423299656</v>
       </c>
       <c r="F4" s="11">
-        <f>+C4/C$14*100</f>
-        <v>10.205377160700934</v>
+        <v>9.9081105973413841</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -939,19 +925,17 @@
         <v>16</v>
       </c>
       <c r="B5" s="14">
-        <v>148.82060000000001</v>
+        <v>161.57619536000001</v>
       </c>
       <c r="C5" s="14">
-        <v>2353.9877999999999</v>
+        <v>2271.4436729680001</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="11">
-        <f t="shared" ref="E5:F12" si="0">+B5/B$14*100</f>
-        <v>48.686895321634175</v>
+        <v>49.395066778357474</v>
       </c>
       <c r="F5" s="11">
-        <f t="shared" si="0"/>
-        <v>53.826526814838552</v>
+        <v>52.193871391086269</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -959,19 +943,17 @@
         <v>17</v>
       </c>
       <c r="B6" s="14">
-        <v>50.008769999999998</v>
+        <v>48.649499304999999</v>
       </c>
       <c r="C6" s="14">
-        <v>718.09324000000004</v>
+        <v>681.293996784</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="11">
-        <f t="shared" si="0"/>
-        <v>16.360448420135917</v>
+        <v>14.872520432542819</v>
       </c>
       <c r="F6" s="11">
-        <f t="shared" si="0"/>
-        <v>16.419993781792027</v>
+        <v>15.654965021078116</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -979,19 +961,17 @@
         <v>18</v>
       </c>
       <c r="B7" s="14">
-        <v>14.9687</v>
+        <v>20.846261736999999</v>
       </c>
       <c r="C7" s="14">
-        <v>1212.6683</v>
+        <v>1299.3761837520001</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="11">
-        <f t="shared" si="0"/>
-        <v>4.8970339455757159</v>
+        <v>6.3728601127412574</v>
       </c>
       <c r="F7" s="11">
-        <f t="shared" si="0"/>
-        <v>27.72899790196648</v>
+        <v>29.857431302610959</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -999,19 +979,17 @@
         <v>19</v>
       </c>
       <c r="B8" s="14">
-        <v>45.882449999999999</v>
+        <v>54.967970436999998</v>
       </c>
       <c r="C8" s="14">
-        <v>686.16147999999998</v>
+        <v>701.14704515200003</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="11">
-        <f t="shared" si="0"/>
-        <v>15.010516287732436</v>
+        <v>16.804124916773223</v>
       </c>
       <c r="F8" s="11">
-        <f t="shared" si="0"/>
-        <v>15.689838877894486</v>
+        <v>16.111153948662853</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -1019,19 +997,17 @@
         <v>20</v>
       </c>
       <c r="B9" s="14">
-        <v>1.3005580000000001</v>
+        <v>2.1191302479999998</v>
       </c>
       <c r="C9" s="14">
-        <v>61.711480999999999</v>
+        <v>58.977108178000002</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="11">
-        <f t="shared" si="0"/>
-        <v>0.42547961240388704</v>
+        <v>0.64783416813830097</v>
       </c>
       <c r="F9" s="11">
-        <f t="shared" si="0"/>
-        <v>1.4111010629833765</v>
+        <v>1.355192574614233</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -1039,19 +1015,17 @@
         <v>21</v>
       </c>
       <c r="B10" s="14">
-        <v>13.17353</v>
+        <v>16.432188480000001</v>
       </c>
       <c r="C10" s="14">
-        <v>143.31482</v>
+        <v>147.453641164</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="11">
-        <f t="shared" si="0"/>
-        <v>4.3097412329100093</v>
+        <v>5.0234444837354673</v>
       </c>
       <c r="F10" s="11">
-        <f t="shared" si="0"/>
-        <v>3.2770513941039794</v>
+        <v>3.3882312269733412</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -1059,19 +1033,17 @@
         <v>22</v>
       </c>
       <c r="B11" s="14">
-        <v>12.943300000000001</v>
+        <v>11.384967285</v>
       </c>
       <c r="C11" s="14">
-        <v>45.496839999999999</v>
+        <v>45.457253682999998</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="11">
-        <f t="shared" si="0"/>
-        <v>4.2344211232618845</v>
+        <v>3.4804707343121963</v>
       </c>
       <c r="F11" s="11">
-        <f t="shared" si="0"/>
-        <v>1.0403354164581562</v>
+        <v>1.0445295565803403</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -1079,19 +1051,17 @@
         <v>14</v>
       </c>
       <c r="B12" s="14">
-        <v>8.6654839999999993</v>
+        <v>9.6457629259999997</v>
       </c>
       <c r="C12" s="14">
-        <v>103.873254</v>
+        <v>106.994689595</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="11">
-        <f t="shared" si="0"/>
-        <v>2.8349268341835456</v>
+        <v>2.948782788184936</v>
       </c>
       <c r="F12" s="11">
-        <f t="shared" si="0"/>
-        <v>2.375176494872036</v>
+        <v>2.4585540617670865</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -1103,10 +1073,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="16">
-        <v>305.6687</v>
+        <v>327.10998465699998</v>
       </c>
       <c r="C14" s="16">
-        <v>4373.2857000000004</v>
+        <v>4351.9356055199996</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -1128,7 +1098,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:C13"/>
+      <selection activeCell="H1" sqref="H1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1184,17 +1154,17 @@
         <v>24</v>
       </c>
       <c r="B4" s="13">
-        <v>31.601700000000001</v>
+        <v>31.320035454999999</v>
       </c>
       <c r="C4" s="13">
-        <v>91.545550000000006</v>
+        <v>94.021791117000006</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="11">
-        <v>10.3</v>
+        <v>9.6</v>
       </c>
       <c r="F4" s="11">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -1202,17 +1172,17 @@
         <v>25</v>
       </c>
       <c r="B5" s="14">
-        <v>11.051270000000001</v>
+        <v>11.000135164</v>
       </c>
       <c r="C5" s="14">
-        <v>152.75810000000001</v>
+        <v>149.552434371</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="11">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="F5" s="11">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -1220,17 +1190,17 @@
         <v>26</v>
       </c>
       <c r="B6" s="14">
-        <v>16.148820000000001</v>
+        <v>15.481554653</v>
       </c>
       <c r="C6" s="14">
-        <v>216.86748</v>
+        <v>210.784253143</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="11">
-        <v>5.3</v>
+        <v>4.7</v>
       </c>
       <c r="F6" s="11">
-        <v>5</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -1238,14 +1208,14 @@
         <v>27</v>
       </c>
       <c r="B7" s="14">
-        <v>5.5832069999999998</v>
+        <v>5.5883940179999998</v>
       </c>
       <c r="C7" s="14">
-        <v>49.226903999999998</v>
+        <v>49.613223419999997</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="11">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="F7" s="11">
         <v>1.1000000000000001</v>
@@ -1256,14 +1226,14 @@
         <v>28</v>
       </c>
       <c r="B8" s="14">
-        <v>9.4694299999999991</v>
+        <v>9.0830985939999991</v>
       </c>
       <c r="C8" s="14">
-        <v>83.07132</v>
+        <v>81.815860642999994</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="11">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="F8" s="11">
         <v>1.9</v>
@@ -1274,17 +1244,17 @@
         <v>29</v>
       </c>
       <c r="B9" s="14">
-        <v>38.908459999999998</v>
+        <v>42.942906979</v>
       </c>
       <c r="C9" s="14">
-        <v>942.68344000000002</v>
+        <v>934.61298109699999</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="11">
-        <v>12.7</v>
+        <v>13.1</v>
       </c>
       <c r="F9" s="11">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -1292,17 +1262,17 @@
         <v>30</v>
       </c>
       <c r="B10" s="14">
-        <v>1.5117309999999999</v>
+        <v>1.6044882220000001</v>
       </c>
       <c r="C10" s="14">
-        <v>17.415769000000001</v>
+        <v>21.325548175999998</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="11">
         <v>0.5</v>
       </c>
       <c r="F10" s="11">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -1310,17 +1280,17 @@
         <v>31</v>
       </c>
       <c r="B11" s="14">
-        <v>5.7044030000000001</v>
+        <v>6.6301165170000003</v>
       </c>
       <c r="C11" s="14">
-        <v>123.369249</v>
+        <v>125.961462207</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="11">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="F11" s="11">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -1332,10 +1302,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="16">
-        <v>305.6687</v>
+        <v>327.10998465699998</v>
       </c>
       <c r="C13" s="16">
-        <v>4373.2857000000004</v>
+        <v>4351.9356055199996</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
@@ -1357,7 +1327,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C8"/>
+      <selection activeCell="H1" sqref="H1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1413,17 +1383,17 @@
         <v>0</v>
       </c>
       <c r="B4" s="13">
-        <v>639.65164000000004</v>
+        <v>653.591409795</v>
       </c>
       <c r="C4" s="13">
-        <v>1428.9049399999999</v>
+        <v>1352.2248017080001</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="11">
-        <v>47.6</v>
+        <v>46.9</v>
       </c>
       <c r="F4" s="11">
-        <v>43.2</v>
+        <v>41.5</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -1431,17 +1401,17 @@
         <v>1</v>
       </c>
       <c r="B5" s="14">
-        <v>62.990279999999998</v>
+        <v>61.268335145000002</v>
       </c>
       <c r="C5" s="14">
-        <v>90.731639999999999</v>
+        <v>86.157008122000008</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="11">
-        <v>4.7</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F5" s="11">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -1449,17 +1419,17 @@
         <v>2</v>
       </c>
       <c r="B6" s="14">
-        <v>309.33589000000001</v>
+        <v>321.34149717299999</v>
       </c>
       <c r="C6" s="14">
-        <v>976.57474000000002</v>
+        <v>1010.9608023230001</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="11">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="F6" s="11">
-        <v>29.5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -1467,17 +1437,17 @@
         <v>3</v>
       </c>
       <c r="B7" s="14">
-        <v>233.14541</v>
+        <v>263.77531076500003</v>
       </c>
       <c r="C7" s="14">
-        <v>365.90746999999999</v>
+        <v>407.62024426800002</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="11">
-        <v>17.3</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="F7" s="11">
-        <v>11.1</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -1485,17 +1455,17 @@
         <v>4</v>
       </c>
       <c r="B8" s="14">
-        <v>99.804050000000004</v>
+        <v>93.502340512999993</v>
       </c>
       <c r="C8" s="14">
-        <v>443.72672999999998</v>
+        <v>402.16652921799999</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="11">
-        <v>7.4</v>
+        <v>6.7</v>
       </c>
       <c r="F8" s="11">
-        <v>13.4</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -1507,12 +1477,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="16">
-        <f>+SUM(B4:B9)</f>
-        <v>1344.9272700000001</v>
+        <v>1393.4788933909999</v>
       </c>
       <c r="C10" s="16">
-        <f>+SUM(C4:C9)</f>
-        <v>3305.8455199999999</v>
+        <v>3259.1293856390002</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
@@ -1534,8 +1502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6D078B-93C4-4F2B-8FAB-8CBBCA5D6A31}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
-      <selection sqref="A1:A14"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1591,17 +1559,17 @@
         <v>15</v>
       </c>
       <c r="B4" s="13">
-        <v>221.79939999999999</v>
+        <v>221.54902489200001</v>
       </c>
       <c r="C4" s="13">
-        <v>307.38080000000002</v>
+        <v>291.10338425999998</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="11">
-        <v>16.5</v>
+        <v>15.9</v>
       </c>
       <c r="F4" s="11">
-        <v>9.1999999999999993</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -1609,17 +1577,17 @@
         <v>16</v>
       </c>
       <c r="B5" s="14">
-        <v>621.56179999999995</v>
+        <v>634.14643274800005</v>
       </c>
       <c r="C5" s="14">
-        <v>1881.2465999999999</v>
+        <v>1798.87343558</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="11">
-        <v>46.1</v>
+        <v>45.4</v>
       </c>
       <c r="F5" s="11">
-        <v>56.5</v>
+        <v>54.8</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -1627,17 +1595,17 @@
         <v>17</v>
       </c>
       <c r="B6" s="14">
-        <v>167.42179999999999</v>
+        <v>166.294537467</v>
       </c>
       <c r="C6" s="14">
-        <v>600.68020000000001</v>
+        <v>563.64895862200001</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="11">
-        <v>12.4</v>
+        <v>11.9</v>
       </c>
       <c r="F6" s="11">
-        <v>18</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -1645,17 +1613,17 @@
         <v>18</v>
       </c>
       <c r="B7" s="14">
-        <v>366.50569999999999</v>
+        <v>395.12947321900003</v>
       </c>
       <c r="C7" s="14">
-        <v>861.13139999999999</v>
+        <v>925.09297227000002</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="11">
-        <v>27.2</v>
+        <v>28.3</v>
       </c>
       <c r="F7" s="11">
-        <v>25.8</v>
+        <v>28.2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -1663,17 +1631,17 @@
         <v>19</v>
       </c>
       <c r="B8" s="14">
-        <v>329.8716</v>
+        <v>350.41210428300002</v>
       </c>
       <c r="C8" s="14">
-        <v>402.17230000000001</v>
+        <v>405.70291130599998</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="11">
-        <v>24.5</v>
+        <v>25.1</v>
       </c>
       <c r="F8" s="11">
-        <v>12.1</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -1681,14 +1649,14 @@
         <v>20</v>
       </c>
       <c r="B9" s="14">
-        <v>30.06035</v>
+        <v>29.40619465</v>
       </c>
       <c r="C9" s="14">
-        <v>32.951680000000003</v>
+        <v>31.690043776</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="11">
-        <v>2.2000000000000002</v>
+        <v>2.1</v>
       </c>
       <c r="F9" s="11">
         <v>1</v>
@@ -1699,17 +1667,17 @@
         <v>21</v>
       </c>
       <c r="B10" s="14">
-        <v>91.851200000000006</v>
+        <v>98.651819638999996</v>
       </c>
       <c r="C10" s="14">
-        <v>64.637150000000005</v>
+        <v>65.234010005000002</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="11">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="F10" s="11">
-        <v>1.9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -1717,14 +1685,14 @@
         <v>22</v>
       </c>
       <c r="B11" s="14">
-        <v>34.183779999999999</v>
+        <v>33.598808875000003</v>
       </c>
       <c r="C11" s="14">
-        <v>24.256360000000001</v>
+        <v>23.243412093</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="11">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="F11" s="11">
         <v>0.7</v>
@@ -1735,17 +1703,17 @@
         <v>14</v>
       </c>
       <c r="B12" s="14">
-        <v>43.183709999999998</v>
+        <v>45.807913824000003</v>
       </c>
       <c r="C12" s="14">
-        <v>69.355029999999999</v>
+        <v>70.832538697000004</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="11">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="F12" s="11">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -1757,10 +1725,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="16">
-        <v>1346.998</v>
+        <v>1396.3793729050001</v>
       </c>
       <c r="C14" s="16">
-        <v>3331.9560000000001</v>
+        <v>3282.6662172719998</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -2008,8 +1976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FA2CBF0-E315-4813-960A-6242D198A56F}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B9"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2095,39 +2063,34 @@
         <v>40</v>
       </c>
       <c r="B4" s="21">
-        <v>8.5594509999999993</v>
+        <v>8.4183358970000004</v>
       </c>
       <c r="C4" s="21">
-        <v>151.03103999999999</v>
+        <v>152.557589404</v>
       </c>
       <c r="D4" s="21">
-        <v>131.44764000000001</v>
+        <v>126.880613419</v>
       </c>
       <c r="E4" s="21">
-        <v>66.345014000000006</v>
+        <v>66.901634743000002</v>
       </c>
       <c r="F4" s="21">
-        <v>13.2325646</v>
+        <v>13.540341367</v>
       </c>
       <c r="H4" s="20">
-        <f t="shared" ref="H4:L8" si="0">+B4/B$10*100</f>
-        <v>29.671375716643478</v>
+        <v>25.9</v>
       </c>
       <c r="I4" s="20">
-        <f t="shared" si="0"/>
-        <v>28.875869546667644</v>
+        <v>30.2</v>
       </c>
       <c r="J4" s="20">
-        <f t="shared" si="0"/>
-        <v>20.321059018114561</v>
+        <v>19.3</v>
       </c>
       <c r="K4" s="20">
-        <f t="shared" si="0"/>
-        <v>28.80104156560493</v>
+        <v>27.8</v>
       </c>
       <c r="L4" s="20">
-        <f t="shared" si="0"/>
-        <v>35.530327414376202</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -2135,39 +2098,34 @@
         <v>41</v>
       </c>
       <c r="B5" s="21">
-        <v>2.1134330000000001</v>
+        <v>1.724842948</v>
       </c>
       <c r="C5" s="21">
-        <v>12.85623</v>
+        <v>13.772288825</v>
       </c>
       <c r="D5" s="21">
-        <v>33.416510000000002</v>
+        <v>30.62527429</v>
       </c>
       <c r="E5" s="21">
-        <v>12.624219999999999</v>
+        <v>14.332327806</v>
       </c>
       <c r="F5" s="21">
-        <v>2.1422577</v>
+        <v>1.909858311</v>
       </c>
       <c r="H5" s="20">
-        <f t="shared" si="0"/>
-        <v>7.3262250809021507</v>
+        <v>5.3</v>
       </c>
       <c r="I5" s="20">
-        <f t="shared" si="0"/>
-        <v>2.458003469630845</v>
+        <v>2.7</v>
       </c>
       <c r="J5" s="20">
-        <f t="shared" si="0"/>
-        <v>5.1660027664963444</v>
+        <v>4.7</v>
       </c>
       <c r="K5" s="20">
-        <f t="shared" si="0"/>
-        <v>5.4803015785533038</v>
+        <v>6</v>
       </c>
       <c r="L5" s="20">
-        <f t="shared" si="0"/>
-        <v>5.7521062460536569</v>
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
@@ -2175,39 +2133,34 @@
         <v>42</v>
       </c>
       <c r="B6" s="21">
-        <v>14.805463</v>
+        <v>15.961218901000001</v>
       </c>
       <c r="C6" s="21">
-        <v>319.94538999999997</v>
+        <v>298.80273577500003</v>
       </c>
       <c r="D6" s="21">
-        <v>421.43261000000001</v>
+        <v>432.38200192300002</v>
       </c>
       <c r="E6" s="21">
-        <v>127.954365</v>
+        <v>132.77103541</v>
       </c>
       <c r="F6" s="21">
-        <v>19.168217599999998</v>
+        <v>19.005868657000001</v>
       </c>
       <c r="H6" s="20">
-        <f t="shared" si="0"/>
-        <v>51.323204646169899</v>
+        <v>49</v>
       </c>
       <c r="I6" s="20">
-        <f t="shared" si="0"/>
-        <v>61.170878143312144</v>
+        <v>59.1</v>
       </c>
       <c r="J6" s="20">
-        <f t="shared" si="0"/>
-        <v>65.151089361270067</v>
+        <v>65.900000000000006</v>
       </c>
       <c r="K6" s="20">
-        <f t="shared" si="0"/>
-        <v>55.54628392821779</v>
+        <v>55.1</v>
       </c>
       <c r="L6" s="20">
-        <f t="shared" si="0"/>
-        <v>51.467955597814218</v>
+        <v>51.2</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
@@ -2215,39 +2168,34 @@
         <v>43</v>
       </c>
       <c r="B7" s="21">
-        <v>3.3691559999999998</v>
+        <v>6.4447042039999998</v>
       </c>
       <c r="C7" s="21">
-        <v>27.901219999999999</v>
+        <v>28.369171572999999</v>
       </c>
       <c r="D7" s="21">
-        <v>41.556420000000003</v>
+        <v>47.523215346999997</v>
       </c>
       <c r="E7" s="21">
-        <v>19.854357</v>
+        <v>23.057779693000001</v>
       </c>
       <c r="F7" s="21">
-        <v>0.40895029999999999</v>
+        <v>0.78226229199999997</v>
       </c>
       <c r="H7" s="20">
-        <f t="shared" si="0"/>
-        <v>11.679194556284472</v>
+        <v>19.8</v>
       </c>
       <c r="I7" s="20">
-        <f t="shared" si="0"/>
-        <v>5.3344795143625721</v>
+        <v>5.6</v>
       </c>
       <c r="J7" s="20">
-        <f t="shared" si="0"/>
-        <v>6.4243866485663519</v>
+        <v>7.2</v>
       </c>
       <c r="K7" s="20">
-        <f t="shared" si="0"/>
-        <v>8.6189771731054154</v>
+        <v>9.6</v>
       </c>
       <c r="L7" s="20">
-        <f t="shared" si="0"/>
-        <v>1.0980591060335629</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
@@ -2258,36 +2206,31 @@
         <v>0</v>
       </c>
       <c r="C8" s="21">
-        <v>11.301589999999999</v>
+        <v>12.251153767</v>
       </c>
       <c r="D8" s="21">
-        <v>19.001100000000001</v>
+        <v>18.598340905000001</v>
       </c>
       <c r="E8" s="21">
-        <v>3.5783450000000001</v>
+        <v>3.7408475999999999</v>
       </c>
       <c r="F8" s="21">
-        <v>2.2910232000000001</v>
+        <v>1.883422283</v>
       </c>
       <c r="H8" s="20">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I8" s="20">
-        <f t="shared" si="0"/>
-        <v>2.1607693260267795</v>
+        <v>2.4</v>
       </c>
       <c r="J8" s="20">
-        <f t="shared" si="0"/>
-        <v>2.9374622055526949</v>
+        <v>2.8</v>
       </c>
       <c r="K8" s="20">
-        <f t="shared" si="0"/>
-        <v>1.5533957545185622</v>
+        <v>1.6</v>
       </c>
       <c r="L8" s="20">
-        <f t="shared" si="0"/>
-        <v>6.1515516357223676</v>
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.35">
@@ -2295,24 +2238,19 @@
         <v>5</v>
       </c>
       <c r="B10" s="25">
-        <f>+SUM(B4:B8)</f>
-        <v>28.847503</v>
+        <v>32.549101950000001</v>
       </c>
       <c r="C10" s="25">
-        <f>+SUM(C4:C8)</f>
-        <v>523.03547000000003</v>
+        <v>505.75293934400003</v>
       </c>
       <c r="D10" s="25">
-        <f>+SUM(D4:D8)</f>
-        <v>646.8542799999999</v>
+        <v>656.009445884</v>
       </c>
       <c r="E10" s="25">
-        <f>+SUM(E4:E8)</f>
-        <v>230.356301</v>
+        <v>240.80362525199999</v>
       </c>
       <c r="F10" s="25">
-        <f>+SUM(F4:F8)</f>
-        <v>37.243013399999995</v>
+        <v>37.121752909999998</v>
       </c>
       <c r="G10" s="24"/>
       <c r="H10" s="24"/>
@@ -2334,10 +2272,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EDAF24D-F21C-483F-9EE5-5A8C6690F1ED}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B11"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2738,6 +2676,14 @@
       <c r="K13" s="22"/>
       <c r="L13" s="22"/>
     </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:A3"/>
